--- a/node_modules/write-excel-file/test-output/test-buffer.xlsx
+++ b/node_modules/write-excel-file/test-output/test-buffer.xlsx
@@ -144,7 +144,7 @@
         <v>180</v>
       </c>
       <c r="B2" s="4">
-        <v>45077.96850516203</v>
+        <v>45309.12770103009</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -161,7 +161,7 @@
         <v>200.5</v>
       </c>
       <c r="B3" s="7">
-        <v>45077.96850516203</v>
+        <v>45309.12770103009</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>4</v>
